--- a/src/test/resources/testdata/userdata.xlsx
+++ b/src/test/resources/testdata/userdata.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7142D1B7-4888-4DE7-B843-E5B270BFB5E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E3BCD8A5-6C73-4459-BC04-18B5C6FB2DD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14100" windowHeight="5730" xr2:uid="{EE3E342E-A170-404B-B1CD-34DE5950996C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="5730" activeTab="1" xr2:uid="{EE3E342E-A170-404B-B1CD-34DE5950996C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -36,6 +37,12 @@
   </si>
   <si>
     <t>Rutwik</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>Mumbai, BOM - Chatrapati Shivaji International Airport</t>
   </si>
 </sst>
 </file>
@@ -389,7 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088BB3F3-26F5-4C5A-BE16-4F8F5213DE24}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -423,4 +430,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E66509-7613-4FDA-9BD6-3C919DD2FAA5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>